--- a/document/nomina_curso.xlsx
+++ b/document/nomina_curso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/api-matriculas/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D7810-4223-F04E-B5ED-2016D2B7CCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C22D92-6271-A74C-A690-4F1BACBE3BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="20160" xr2:uid="{69691418-0025-0145-BA28-14BA05E482B5}"/>
   </bookViews>
@@ -80,16 +80,16 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Nombre completo estudianteS</t>
-  </si>
-  <si>
     <t>Nº de Matrícula</t>
   </si>
   <si>
     <t>Inspector(a) General</t>
   </si>
   <si>
-    <t>Profesor(a) Jefe</t>
+    <t>Nombre completo estudiantes</t>
+  </si>
+  <si>
+    <t>Profesor(a) Jefe(a)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -438,6 +438,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,8 +507,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,10 +893,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -912,14 +917,14 @@
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="11"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -935,93 +940,93 @@
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="38"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>13</v>
+      <c r="G8" s="29" t="s">
+        <v>15</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="25" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="25"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="32"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1627,14 +1632,17 @@
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="4"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E58" s="14"/>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="4"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="43"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E59" s="14"/>
@@ -1642,11 +1650,20 @@
         <v>12</v>
       </c>
       <c r="G59" s="17"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="43"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F60" s="9"/>
       <c r="G60" s="5"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/document/nomina_curso.xlsx
+++ b/document/nomina_curso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/api-matriculas/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C22D92-6271-A74C-A690-4F1BACBE3BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C953D9-963A-4244-801D-3CB6AA1A2EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="20160" xr2:uid="{69691418-0025-0145-BA28-14BA05E482B5}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -441,6 +441,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,12 +496,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,41 +510,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,11 +533,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>126998</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1066800" cy="1293091"/>
+    <xdr:ext cx="914400" cy="1108364"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="insignia" descr="insignia lvl">
@@ -560,8 +559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="126998"/>
-          <a:ext cx="1066800" cy="1293091"/>
+          <a:off x="914400" y="253999"/>
+          <a:ext cx="914400" cy="1108364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -908,7 +907,7 @@
     <col min="6" max="6" width="10.83203125" style="7" customWidth="1"/>
     <col min="7" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
@@ -917,14 +916,14 @@
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="11"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -936,97 +935,97 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="39"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="26" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="26" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="26"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1039,7 +1038,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1052,7 +1051,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1065,7 +1064,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1078,7 +1077,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,7 +1090,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1104,7 +1103,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1117,7 +1116,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1130,7 +1129,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1143,7 +1142,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1156,7 +1155,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1169,7 +1168,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1182,7 +1181,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1195,7 +1194,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1208,7 +1207,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1221,7 +1220,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1234,7 +1233,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1247,7 +1246,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1260,7 +1259,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1273,7 +1272,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1286,7 +1285,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1299,7 +1298,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1312,7 +1311,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1325,7 +1324,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1338,7 +1337,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="12"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -1351,7 +1350,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1364,7 +1363,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -1377,7 +1376,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1390,7 +1389,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="J38" s="12"/>
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1403,7 +1402,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1416,7 +1415,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="J40" s="12"/>
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1429,7 +1428,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1442,7 +1441,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
+      <c r="J42" s="12"/>
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1455,7 +1454,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1468,7 +1467,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="J44" s="12"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1481,7 +1480,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -1494,7 +1493,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -1507,7 +1506,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,7 +1519,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -1533,7 +1532,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="J49" s="12"/>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -1546,7 +1545,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
+      <c r="J50" s="12"/>
       <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -1559,7 +1558,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
+      <c r="J51" s="12"/>
       <c r="K51" s="4"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -1572,7 +1571,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="J52" s="12"/>
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -1585,7 +1584,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -1598,7 +1597,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="J54" s="12"/>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -1611,7 +1610,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="J55" s="12"/>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -1623,7 +1622,7 @@
       <c r="G56" s="16"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E57" s="14"/>
@@ -1633,7 +1632,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="4"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E58" s="14"/>
@@ -1641,7 +1640,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="20"/>
-      <c r="H58" s="43"/>
+      <c r="H58" s="21"/>
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -1650,23 +1649,29 @@
         <v>12</v>
       </c>
       <c r="G59" s="17"/>
-      <c r="H59" s="43"/>
+      <c r="H59" s="21"/>
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F60" s="9"/>
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="J61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G8:I9"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="D6:F6"/>
@@ -1674,13 +1679,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/document/nomina_curso.xlsx
+++ b/document/nomina_curso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/api-matriculas/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5F501-5E19-E548-9674-8CD864A37908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B17767-76C6-7349-B252-688A5F4D2A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="20160" xr2:uid="{69691418-0025-0145-BA28-14BA05E482B5}"/>
   </bookViews>
@@ -463,6 +463,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,12 +523,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,45 +533,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,7 +926,8 @@
   <cols>
     <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="14.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" customWidth="1"/>
     <col min="6" max="7" width="19.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.83203125" style="1" customWidth="1"/>
@@ -940,14 +941,14 @@
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -962,98 +963,98 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="50"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="51"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="47" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="52"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="34" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="35"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -1612,6 +1613,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F9:H10"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="C6:E6"/>
@@ -1621,13 +1629,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I6:I8"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F9:H10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/document/nomina_curso.xlsx
+++ b/document/nomina_curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/api-matriculas/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B17767-76C6-7349-B252-688A5F4D2A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D4195C-0E72-D74C-907C-6E876F99CBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="0" windowWidth="33680" windowHeight="20160" xr2:uid="{69691418-0025-0145-BA28-14BA05E482B5}"/>
+    <workbookView xWindow="4220" yWindow="0" windowWidth="29380" windowHeight="19560" xr2:uid="{69691418-0025-0145-BA28-14BA05E482B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>NÓMINA PARA REGISTRO DE ASISTENCIA DIARIA 2024</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nº de Lista</t>
   </si>
@@ -463,10 +460,37 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,33 +530,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,7 +916,7 @@
   <dimension ref="A1:XFC62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -941,14 +938,12 @@
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
-      <c r="C3" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -963,98 +958,98 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>13</v>
+      <c r="D9" s="34"/>
+      <c r="E9" s="8" t="s">
+        <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="29" t="s">
+      <c r="F9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="38" t="s">
-        <v>17</v>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="34" t="s">
+        <v>8</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="29" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="8" t="s">
+      <c r="D10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
@@ -1568,7 +1563,7 @@
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="15"/>
       <c r="G58" s="23"/>
@@ -1581,7 +1576,7 @@
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
       <c r="E59" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="27"/>
@@ -1594,7 +1589,7 @@
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="27"/>
@@ -1613,13 +1608,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F9:H10"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="C6:E6"/>
@@ -1629,6 +1617,13 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I6:I8"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F9:H10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
